--- a/biology/Zoologie/Heteromys_anomalus/Heteromys_anomalus.xlsx
+++ b/biology/Zoologie/Heteromys_anomalus/Heteromys_anomalus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Heteromys anomalus est une espèce de Rongeurs de la famille des Heteromyidae (qui regroupe les souris kangourou d'Amérique). Ce petit mammifère fait partie des Souris épineuses à poches[1], c'est-à-dire à larges abajoues. Il est présent en Colombie, Trinité-et-Tobago et Venezuela.
-L'espèce a été décrite pour la première fois en 1815 par John Vaughan Thompson (1779-1847)[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heteromys anomalus est une espèce de Rongeurs de la famille des Heteromyidae (qui regroupe les souris kangourou d'Amérique). Ce petit mammifère fait partie des Souris épineuses à poches, c'est-à-dire à larges abajoues. Il est présent en Colombie, Trinité-et-Tobago et Venezuela.
+L'espèce a été décrite pour la première fois en 1815 par John Vaughan Thompson (1779-1847).
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Mammal Species of the World (version 3, 2005)  (20 nov. 2012)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Mammal Species of the World (version 3, 2005)  (20 nov. 2012) :
 sous-espèce Heteromys anomalus anomalus
 sous-espèce Heteromys anomalus brachialis
 sous-espèce Heteromys anomalus hershkovitzi
